--- a/Data/Call/Call_CKJ.xlsx
+++ b/Data/Call/Call_CKJ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>FFTR</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>CKJ46</t>
+  </si>
+  <si>
+    <t>CKJ51</t>
   </si>
   <si>
     <t>CKJ52</t>
@@ -476,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -551,28 +554,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -583,31 +586,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -615,28 +618,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>9</v>
@@ -647,31 +650,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -682,22 +685,22 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
       <c r="H7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -711,31 +714,31 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -743,31 +746,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -775,28 +778,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -807,31 +810,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -839,28 +842,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -871,31 +874,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -903,25 +906,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -935,31 +938,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -967,25 +970,25 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -999,31 +1002,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1031,31 +1034,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>6</v>
       </c>
       <c r="J18">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1063,16 +1066,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1081,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1095,31 +1098,31 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
         <v>8</v>
       </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
       <c r="H20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1127,31 +1130,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1159,31 +1162,31 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
         <v>11</v>
       </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
       <c r="H22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1191,31 +1194,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1223,13 +1226,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1238,16 +1241,16 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1255,31 +1258,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1290,28 +1293,60 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
         <v>19</v>
       </c>
-      <c r="G26">
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
         <v>11</v>
       </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
-      <c r="I26">
+      <c r="J27">
         <v>8</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Call/Call_CKJ.xlsx
+++ b/Data/Call/Call_CKJ.xlsx
@@ -14,36 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Call</t>
-  </si>
-  <si>
-    <t>EMAZID Call</t>
-  </si>
-  <si>
-    <t>LIPICON Call</t>
-  </si>
-  <si>
-    <t>AGLIP Call</t>
-  </si>
-  <si>
-    <t>CIFIBET Call</t>
-  </si>
-  <si>
-    <t>AMLEVO Call</t>
-  </si>
-  <si>
-    <t>CARDOBIS Call</t>
-  </si>
-  <si>
-    <t>RIVAROX Call</t>
-  </si>
-  <si>
-    <t>Noclog Call</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CKJ</t>
+  </si>
+  <si>
+    <t>CKJ10</t>
   </si>
   <si>
     <t>CKJ11</t>
@@ -64,6 +70,9 @@
     <t>CKJ16</t>
   </si>
   <si>
+    <t>CKJ20</t>
+  </si>
+  <si>
     <t>CKJ21</t>
   </si>
   <si>
@@ -79,6 +88,12 @@
     <t>CKJ25</t>
   </si>
   <si>
+    <t>CKJ26</t>
+  </si>
+  <si>
+    <t>CKJ30</t>
+  </si>
+  <si>
     <t>CKJ31</t>
   </si>
   <si>
@@ -94,6 +109,12 @@
     <t>CKJ35</t>
   </si>
   <si>
+    <t>CKJ40</t>
+  </si>
+  <si>
+    <t>CKJ41</t>
+  </si>
+  <si>
     <t>CKJ42</t>
   </si>
   <si>
@@ -103,7 +124,13 @@
     <t>CKJ44</t>
   </si>
   <si>
+    <t>CKJ45</t>
+  </si>
+  <si>
     <t>CKJ46</t>
+  </si>
+  <si>
+    <t>CKJ50</t>
   </si>
   <si>
     <t>CKJ51</t>
@@ -479,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +549,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -554,31 +581,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -586,31 +613,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -618,31 +645,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -650,31 +677,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -682,25 +709,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -714,31 +741,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -746,31 +773,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -778,31 +805,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -810,25 +837,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -842,31 +869,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -874,31 +901,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -906,25 +933,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -938,31 +965,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -970,25 +997,25 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1002,31 +1029,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1034,31 +1061,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1066,31 +1093,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
       <c r="H19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1098,31 +1125,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1130,31 +1157,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>19</v>
-      </c>
       <c r="H21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1162,31 +1189,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1194,31 +1221,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1235,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1258,31 +1285,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1290,31 +1317,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1322,31 +1349,319 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Call/Call_CKJ.xlsx
+++ b/Data/Call/Call_CKJ.xlsx
@@ -549,31 +549,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -581,31 +581,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -613,31 +613,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -645,31 +645,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -677,31 +677,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -709,13 +709,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -741,31 +741,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -805,31 +805,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -846,22 +846,22 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,31 +869,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,31 +901,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -933,31 +933,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -965,31 +965,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -997,31 +997,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1029,31 +1029,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1061,31 +1061,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1093,25 +1093,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
         <v>6</v>
       </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
       <c r="G19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1125,31 +1125,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1157,31 +1157,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1189,25 +1189,25 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1221,31 +1221,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1285,7 +1285,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1349,31 +1349,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1413,31 +1413,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1445,31 +1445,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1477,31 +1477,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1509,31 +1509,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1553,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1573,31 +1573,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1637,31 +1637,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
